--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Chad-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Chad-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Chad</t>
   </si>
   <si>
     <t>Itgb1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
     <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.34408007393366</v>
+        <v>0.140201</v>
       </c>
       <c r="H2">
-        <v>2.34408007393366</v>
+        <v>0.420603</v>
       </c>
       <c r="I2">
-        <v>0.7748474257012091</v>
+        <v>0.02759063995199814</v>
       </c>
       <c r="J2">
-        <v>0.7748474257012091</v>
+        <v>0.02759063995199814</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>171.1855503286654</v>
+        <v>13.291033910051</v>
       </c>
       <c r="R2">
-        <v>171.1855503286654</v>
+        <v>119.619305190459</v>
       </c>
       <c r="S2">
-        <v>0.1073651905318333</v>
+        <v>0.00464064513215369</v>
       </c>
       <c r="T2">
-        <v>0.1073651905318333</v>
+        <v>0.00464064513215369</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.34408007393366</v>
+        <v>0.140201</v>
       </c>
       <c r="H3">
-        <v>2.34408007393366</v>
+        <v>0.420603</v>
       </c>
       <c r="I3">
-        <v>0.7748474257012091</v>
+        <v>0.02759063995199814</v>
       </c>
       <c r="J3">
-        <v>0.7748474257012091</v>
+        <v>0.02759063995199814</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>339.6329811221333</v>
+        <v>20.41906468722933</v>
       </c>
       <c r="R3">
-        <v>339.6329811221333</v>
+        <v>183.771582185064</v>
       </c>
       <c r="S3">
-        <v>0.2130130706654992</v>
+        <v>0.007129440326855543</v>
       </c>
       <c r="T3">
-        <v>0.2130130706654992</v>
+        <v>0.007129440326855544</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.34408007393366</v>
+        <v>0.140201</v>
       </c>
       <c r="H4">
-        <v>2.34408007393366</v>
+        <v>0.420603</v>
       </c>
       <c r="I4">
-        <v>0.7748474257012091</v>
+        <v>0.02759063995199814</v>
       </c>
       <c r="J4">
-        <v>0.7748474257012091</v>
+        <v>0.02759063995199814</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>159.4437616010551</v>
+        <v>10.20326386343733</v>
       </c>
       <c r="R4">
-        <v>159.4437616010551</v>
+        <v>91.829374770936</v>
       </c>
       <c r="S4">
-        <v>0.1000009043435188</v>
+        <v>0.003562531485540272</v>
       </c>
       <c r="T4">
-        <v>0.1000009043435188</v>
+        <v>0.003562531485540272</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.34408007393366</v>
+        <v>0.140201</v>
       </c>
       <c r="H5">
-        <v>2.34408007393366</v>
+        <v>0.420603</v>
       </c>
       <c r="I5">
-        <v>0.7748474257012091</v>
+        <v>0.02759063995199814</v>
       </c>
       <c r="J5">
-        <v>0.7748474257012091</v>
+        <v>0.02759063995199814</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>178.9622038645828</v>
+        <v>10.70940807343667</v>
       </c>
       <c r="R5">
-        <v>178.9622038645828</v>
+        <v>96.38467266093001</v>
       </c>
       <c r="S5">
-        <v>0.1122425992090306</v>
+        <v>0.003739254807457684</v>
       </c>
       <c r="T5">
-        <v>0.1122425992090306</v>
+        <v>0.003739254807457684</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.34408007393366</v>
+        <v>0.140201</v>
       </c>
       <c r="H6">
-        <v>2.34408007393366</v>
+        <v>0.420603</v>
       </c>
       <c r="I6">
-        <v>0.7748474257012091</v>
+        <v>0.02759063995199814</v>
       </c>
       <c r="J6">
-        <v>0.7748474257012091</v>
+        <v>0.02759063995199814</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>133.6400330150486</v>
+        <v>8.157859604085999</v>
       </c>
       <c r="R6">
-        <v>133.6400330150486</v>
+        <v>73.42073643677399</v>
       </c>
       <c r="S6">
-        <v>0.08381716552473838</v>
+        <v>0.0028483661780342</v>
       </c>
       <c r="T6">
-        <v>0.08381716552473838</v>
+        <v>0.0028483661780342</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>2.34408007393366</v>
+        <v>0.140201</v>
       </c>
       <c r="H7">
-        <v>2.34408007393366</v>
+        <v>0.420603</v>
       </c>
       <c r="I7">
-        <v>0.7748474257012091</v>
+        <v>0.02759063995199814</v>
       </c>
       <c r="J7">
-        <v>0.7748474257012091</v>
+        <v>0.02759063995199814</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>252.570179701738</v>
+        <v>16.24030784755833</v>
       </c>
       <c r="R7">
-        <v>252.570179701738</v>
+        <v>146.162770628025</v>
       </c>
       <c r="S7">
-        <v>0.1584084954265888</v>
+        <v>0.005670402021956752</v>
       </c>
       <c r="T7">
-        <v>0.1584084954265888</v>
+        <v>0.005670402021956752</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.681134950575651</v>
+        <v>2.782805666666667</v>
       </c>
       <c r="H8">
-        <v>0.681134950575651</v>
+        <v>8.348417</v>
       </c>
       <c r="I8">
-        <v>0.2251525742987908</v>
+        <v>0.5476379569716346</v>
       </c>
       <c r="J8">
-        <v>0.2251525742987908</v>
+        <v>0.5476379569716345</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>49.7425248646523</v>
+        <v>263.8095625619557</v>
       </c>
       <c r="R8">
-        <v>49.7425248646523</v>
+        <v>2374.286063057601</v>
       </c>
       <c r="S8">
-        <v>0.03119781809489297</v>
+        <v>0.09211070941538485</v>
       </c>
       <c r="T8">
-        <v>0.03119781809489297</v>
+        <v>0.09211070941538485</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.681134950575651</v>
+        <v>2.782805666666667</v>
       </c>
       <c r="H9">
-        <v>0.681134950575651</v>
+        <v>8.348417</v>
       </c>
       <c r="I9">
-        <v>0.2251525742987908</v>
+        <v>0.5476379569716346</v>
       </c>
       <c r="J9">
-        <v>0.2251525742987908</v>
+        <v>0.5476379569716345</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>98.68941610952506</v>
+        <v>405.291609329855</v>
       </c>
       <c r="R9">
-        <v>98.68941610952506</v>
+        <v>3647.624483968696</v>
       </c>
       <c r="S9">
-        <v>0.06189662587602317</v>
+        <v>0.1415100244772538</v>
       </c>
       <c r="T9">
-        <v>0.06189662587602317</v>
+        <v>0.1415100244772538</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.681134950575651</v>
+        <v>2.782805666666667</v>
       </c>
       <c r="H10">
-        <v>0.681134950575651</v>
+        <v>8.348417</v>
       </c>
       <c r="I10">
-        <v>0.2251525742987908</v>
+        <v>0.5476379569716346</v>
       </c>
       <c r="J10">
-        <v>0.2251525742987908</v>
+        <v>0.5476379569716345</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>46.33063515423412</v>
+        <v>202.5213835683671</v>
       </c>
       <c r="R10">
-        <v>46.33063515423412</v>
+        <v>1822.692452115304</v>
       </c>
       <c r="S10">
-        <v>0.02905792843639468</v>
+        <v>0.07071156985784614</v>
       </c>
       <c r="T10">
-        <v>0.02905792843639468</v>
+        <v>0.07071156985784613</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.681134950575651</v>
+        <v>2.782805666666667</v>
       </c>
       <c r="H11">
-        <v>0.681134950575651</v>
+        <v>8.348417</v>
       </c>
       <c r="I11">
-        <v>0.2251525742987908</v>
+        <v>0.5476379569716346</v>
       </c>
       <c r="J11">
-        <v>0.2251525742987908</v>
+        <v>0.5476379569716345</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>52.0022388482886</v>
+        <v>212.5676812105856</v>
       </c>
       <c r="R11">
-        <v>52.0022388482886</v>
+        <v>1913.10913089527</v>
       </c>
       <c r="S11">
-        <v>0.03261507920095452</v>
+        <v>0.07421929563486578</v>
       </c>
       <c r="T11">
-        <v>0.03261507920095452</v>
+        <v>0.07421929563486578</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.681134950575651</v>
+        <v>2.782805666666667</v>
       </c>
       <c r="H12">
-        <v>0.681134950575651</v>
+        <v>8.348417</v>
       </c>
       <c r="I12">
-        <v>0.2251525742987908</v>
+        <v>0.5476379569716346</v>
       </c>
       <c r="J12">
-        <v>0.2251525742987908</v>
+        <v>0.5476379569716345</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>38.83267397511679</v>
+        <v>161.9227960864873</v>
       </c>
       <c r="R12">
-        <v>38.83267397511679</v>
+        <v>1457.305164778386</v>
       </c>
       <c r="S12">
-        <v>0.02435531171990994</v>
+        <v>0.05653632670933337</v>
       </c>
       <c r="T12">
-        <v>0.02435531171990994</v>
+        <v>0.05653632670933337</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1177 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.782805666666667</v>
+      </c>
+      <c r="H13">
+        <v>8.348417</v>
+      </c>
+      <c r="I13">
+        <v>0.5476379569716346</v>
+      </c>
+      <c r="J13">
+        <v>0.5476379569716345</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N13">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O13">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P13">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q13">
+        <v>322.348775733386</v>
+      </c>
+      <c r="R13">
+        <v>2901.138981600474</v>
+      </c>
+      <c r="S13">
+        <v>0.1125500308769508</v>
+      </c>
+      <c r="T13">
+        <v>0.1125500308769507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.7927136666666668</v>
+      </c>
+      <c r="H14">
+        <v>2.378141</v>
+      </c>
+      <c r="I14">
+        <v>0.1560008656288348</v>
+      </c>
+      <c r="J14">
+        <v>0.1560008656288348</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>94.799851</v>
+      </c>
+      <c r="N14">
+        <v>284.399553</v>
+      </c>
+      <c r="O14">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="P14">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="Q14">
+        <v>75.14913748566367</v>
+      </c>
+      <c r="R14">
+        <v>676.3422373709732</v>
+      </c>
+      <c r="S14">
+        <v>0.02623877731548541</v>
+      </c>
+      <c r="T14">
+        <v>0.02623877731548541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.7927136666666668</v>
+      </c>
+      <c r="H15">
+        <v>2.378141</v>
+      </c>
+      <c r="I15">
+        <v>0.1560008656288348</v>
+      </c>
+      <c r="J15">
+        <v>0.1560008656288348</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>145.6413626666667</v>
+      </c>
+      <c r="N15">
+        <v>436.924088</v>
+      </c>
+      <c r="O15">
+        <v>0.2584006873076977</v>
+      </c>
+      <c r="P15">
+        <v>0.2584006873076978</v>
+      </c>
+      <c r="Q15">
+        <v>115.4518986178231</v>
+      </c>
+      <c r="R15">
+        <v>1039.067087560408</v>
+      </c>
+      <c r="S15">
+        <v>0.04031073089908672</v>
+      </c>
+      <c r="T15">
+        <v>0.04031073089908672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.7927136666666668</v>
+      </c>
+      <c r="H16">
+        <v>2.378141</v>
+      </c>
+      <c r="I16">
+        <v>0.1560008656288348</v>
+      </c>
+      <c r="J16">
+        <v>0.1560008656288348</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>72.77597066666667</v>
+      </c>
+      <c r="N16">
+        <v>218.327912</v>
+      </c>
+      <c r="O16">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="P16">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="Q16">
+        <v>57.69050655239911</v>
+      </c>
+      <c r="R16">
+        <v>519.2145589715921</v>
+      </c>
+      <c r="S16">
+        <v>0.02014299039606049</v>
+      </c>
+      <c r="T16">
+        <v>0.02014299039606049</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.7927136666666668</v>
+      </c>
+      <c r="H17">
+        <v>2.378141</v>
+      </c>
+      <c r="I17">
+        <v>0.1560008656288348</v>
+      </c>
+      <c r="J17">
+        <v>0.1560008656288348</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>76.38610333333334</v>
+      </c>
+      <c r="N17">
+        <v>229.15831</v>
+      </c>
+      <c r="O17">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="P17">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="Q17">
+        <v>60.55230805574557</v>
+      </c>
+      <c r="R17">
+        <v>544.9707725017101</v>
+      </c>
+      <c r="S17">
+        <v>0.02114220575474313</v>
+      </c>
+      <c r="T17">
+        <v>0.02114220575474313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.681134950575651</v>
-      </c>
-      <c r="H13">
-        <v>0.681134950575651</v>
-      </c>
-      <c r="I13">
-        <v>0.2251525742987908</v>
-      </c>
-      <c r="J13">
-        <v>0.2251525742987908</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>107.748102341015</v>
-      </c>
-      <c r="N13">
-        <v>107.748102341015</v>
-      </c>
-      <c r="O13">
-        <v>0.2044383063972043</v>
-      </c>
-      <c r="P13">
-        <v>0.2044383063972043</v>
-      </c>
-      <c r="Q13">
-        <v>73.39099836266743</v>
-      </c>
-      <c r="R13">
-        <v>73.39099836266743</v>
-      </c>
-      <c r="S13">
-        <v>0.0460298109706155</v>
-      </c>
-      <c r="T13">
-        <v>0.0460298109706155</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.7927136666666668</v>
+      </c>
+      <c r="H18">
+        <v>2.378141</v>
+      </c>
+      <c r="I18">
+        <v>0.1560008656288348</v>
+      </c>
+      <c r="J18">
+        <v>0.1560008656288348</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>58.18688599999999</v>
+      </c>
+      <c r="N18">
+        <v>174.560658</v>
+      </c>
+      <c r="O18">
+        <v>0.10323668399826</v>
+      </c>
+      <c r="P18">
+        <v>0.1032366839982601</v>
+      </c>
+      <c r="Q18">
+        <v>46.12553975297534</v>
+      </c>
+      <c r="R18">
+        <v>415.129857776778</v>
+      </c>
+      <c r="S18">
+        <v>0.01610501206837905</v>
+      </c>
+      <c r="T18">
+        <v>0.01610501206837905</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.7927136666666668</v>
+      </c>
+      <c r="H19">
+        <v>2.378141</v>
+      </c>
+      <c r="I19">
+        <v>0.1560008656288348</v>
+      </c>
+      <c r="J19">
+        <v>0.1560008656288348</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N19">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O19">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P19">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q19">
+        <v>91.82469441468611</v>
+      </c>
+      <c r="R19">
+        <v>826.422249732175</v>
+      </c>
+      <c r="S19">
+        <v>0.03206114919508005</v>
+      </c>
+      <c r="T19">
+        <v>0.03206114919508005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.209246</v>
+      </c>
+      <c r="H20">
+        <v>3.627738</v>
+      </c>
+      <c r="I20">
+        <v>0.2379717049050574</v>
+      </c>
+      <c r="J20">
+        <v>0.2379717049050573</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>94.799851</v>
+      </c>
+      <c r="N20">
+        <v>284.399553</v>
+      </c>
+      <c r="O20">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="P20">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="Q20">
+        <v>114.636340622346</v>
+      </c>
+      <c r="R20">
+        <v>1031.727065601114</v>
+      </c>
+      <c r="S20">
+        <v>0.0400259738766223</v>
+      </c>
+      <c r="T20">
+        <v>0.0400259738766223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.209246</v>
+      </c>
+      <c r="H21">
+        <v>3.627738</v>
+      </c>
+      <c r="I21">
+        <v>0.2379717049050574</v>
+      </c>
+      <c r="J21">
+        <v>0.2379717049050573</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>145.6413626666667</v>
+      </c>
+      <c r="N21">
+        <v>436.924088</v>
+      </c>
+      <c r="O21">
+        <v>0.2584006873076977</v>
+      </c>
+      <c r="P21">
+        <v>0.2584006873076978</v>
+      </c>
+      <c r="Q21">
+        <v>176.116235239216</v>
+      </c>
+      <c r="R21">
+        <v>1585.046117152944</v>
+      </c>
+      <c r="S21">
+        <v>0.06149205210725144</v>
+      </c>
+      <c r="T21">
+        <v>0.06149205210725144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>1.209246</v>
+      </c>
+      <c r="H22">
+        <v>3.627738</v>
+      </c>
+      <c r="I22">
+        <v>0.2379717049050574</v>
+      </c>
+      <c r="J22">
+        <v>0.2379717049050573</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>72.77597066666667</v>
+      </c>
+      <c r="N22">
+        <v>218.327912</v>
+      </c>
+      <c r="O22">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="P22">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="Q22">
+        <v>88.00405142478401</v>
+      </c>
+      <c r="R22">
+        <v>792.036462823056</v>
+      </c>
+      <c r="S22">
+        <v>0.03072714851365991</v>
+      </c>
+      <c r="T22">
+        <v>0.0307271485136599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>1.209246</v>
+      </c>
+      <c r="H23">
+        <v>3.627738</v>
+      </c>
+      <c r="I23">
+        <v>0.2379717049050574</v>
+      </c>
+      <c r="J23">
+        <v>0.2379717049050573</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>76.38610333333334</v>
+      </c>
+      <c r="N23">
+        <v>229.15831</v>
+      </c>
+      <c r="O23">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="P23">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="Q23">
+        <v>92.36958991142001</v>
+      </c>
+      <c r="R23">
+        <v>831.3263092027801</v>
+      </c>
+      <c r="S23">
+        <v>0.03225140276388168</v>
+      </c>
+      <c r="T23">
+        <v>0.03225140276388168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>1.209246</v>
+      </c>
+      <c r="H24">
+        <v>3.627738</v>
+      </c>
+      <c r="I24">
+        <v>0.2379717049050574</v>
+      </c>
+      <c r="J24">
+        <v>0.2379717049050573</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>58.18688599999999</v>
+      </c>
+      <c r="N24">
+        <v>174.560658</v>
+      </c>
+      <c r="O24">
+        <v>0.10323668399826</v>
+      </c>
+      <c r="P24">
+        <v>0.1032366839982601</v>
+      </c>
+      <c r="Q24">
+        <v>70.362259147956</v>
+      </c>
+      <c r="R24">
+        <v>633.260332331604</v>
+      </c>
+      <c r="S24">
+        <v>0.0245674096998106</v>
+      </c>
+      <c r="T24">
+        <v>0.02456740969981059</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>1.209246</v>
+      </c>
+      <c r="H25">
+        <v>3.627738</v>
+      </c>
+      <c r="I25">
+        <v>0.2379717049050574</v>
+      </c>
+      <c r="J25">
+        <v>0.2379717049050573</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N25">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O25">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P25">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q25">
+        <v>140.07408865435</v>
+      </c>
+      <c r="R25">
+        <v>1260.66679788915</v>
+      </c>
+      <c r="S25">
+        <v>0.04890771794383147</v>
+      </c>
+      <c r="T25">
+        <v>0.04890771794383146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1565033333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.46951</v>
+      </c>
+      <c r="I26">
+        <v>0.03079883254247508</v>
+      </c>
+      <c r="J26">
+        <v>0.03079883254247508</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>94.799851</v>
+      </c>
+      <c r="N26">
+        <v>284.399553</v>
+      </c>
+      <c r="O26">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="P26">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="Q26">
+        <v>14.83649268100333</v>
+      </c>
+      <c r="R26">
+        <v>133.52843412903</v>
+      </c>
+      <c r="S26">
+        <v>0.005180251438999435</v>
+      </c>
+      <c r="T26">
+        <v>0.005180251438999434</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.1565033333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.46951</v>
+      </c>
+      <c r="I27">
+        <v>0.03079883254247508</v>
+      </c>
+      <c r="J27">
+        <v>0.03079883254247508</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>145.6413626666667</v>
+      </c>
+      <c r="N27">
+        <v>436.924088</v>
+      </c>
+      <c r="O27">
+        <v>0.2584006873076977</v>
+      </c>
+      <c r="P27">
+        <v>0.2584006873076978</v>
+      </c>
+      <c r="Q27">
+        <v>22.79335872854222</v>
+      </c>
+      <c r="R27">
+        <v>205.14022855688</v>
+      </c>
+      <c r="S27">
+        <v>0.007958439497250249</v>
+      </c>
+      <c r="T27">
+        <v>0.007958439497250249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.1565033333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.46951</v>
+      </c>
+      <c r="I28">
+        <v>0.03079883254247508</v>
+      </c>
+      <c r="J28">
+        <v>0.03079883254247508</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>72.77597066666667</v>
+      </c>
+      <c r="N28">
+        <v>218.327912</v>
+      </c>
+      <c r="O28">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="P28">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="Q28">
+        <v>11.38968199590222</v>
+      </c>
+      <c r="R28">
+        <v>102.50713796312</v>
+      </c>
+      <c r="S28">
+        <v>0.003976776575003063</v>
+      </c>
+      <c r="T28">
+        <v>0.003976776575003062</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.1565033333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.46951</v>
+      </c>
+      <c r="I29">
+        <v>0.03079883254247508</v>
+      </c>
+      <c r="J29">
+        <v>0.03079883254247508</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>76.38610333333334</v>
+      </c>
+      <c r="N29">
+        <v>229.15831</v>
+      </c>
+      <c r="O29">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="P29">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="Q29">
+        <v>11.95467979201111</v>
+      </c>
+      <c r="R29">
+        <v>107.5921181281</v>
+      </c>
+      <c r="S29">
+        <v>0.004174048983600824</v>
+      </c>
+      <c r="T29">
+        <v>0.004174048983600824</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.1565033333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.46951</v>
+      </c>
+      <c r="I30">
+        <v>0.03079883254247508</v>
+      </c>
+      <c r="J30">
+        <v>0.03079883254247508</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>58.18688599999999</v>
+      </c>
+      <c r="N30">
+        <v>174.560658</v>
+      </c>
+      <c r="O30">
+        <v>0.10323668399826</v>
+      </c>
+      <c r="P30">
+        <v>0.1032366839982601</v>
+      </c>
+      <c r="Q30">
+        <v>9.106441615286666</v>
+      </c>
+      <c r="R30">
+        <v>81.95797453757999</v>
+      </c>
+      <c r="S30">
+        <v>0.003179569342702828</v>
+      </c>
+      <c r="T30">
+        <v>0.003179569342702828</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.1565033333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.46951</v>
+      </c>
+      <c r="I31">
+        <v>0.03079883254247508</v>
+      </c>
+      <c r="J31">
+        <v>0.03079883254247508</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N31">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O31">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P31">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q31">
+        <v>18.12870316547222</v>
+      </c>
+      <c r="R31">
+        <v>163.15832848925</v>
+      </c>
+      <c r="S31">
+        <v>0.006329746704918688</v>
+      </c>
+      <c r="T31">
+        <v>0.006329746704918687</v>
       </c>
     </row>
   </sheetData>
